--- a/TextTable.xlsx
+++ b/TextTable.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>النص الأصلي</t>
   </si>
@@ -22,12 +22,6 @@
     <t>إن أردت مسح النصوص لتضع أخرى فتأكد من مسح التنسيقات الخاصة بالنصوص القديمة.</t>
   </si>
   <si>
-    <t>إن وضعت نصاً في خانة النص الأصلي وتركت الخلية المجاورة فارغة فسيتم حذف النص في اللعبة.</t>
-  </si>
-  <si>
-    <t>وإن فعلت العكس فسيتجاهله البرنامج.</t>
-  </si>
-  <si>
     <t>Hello there</t>
   </si>
   <si>
@@ -68,6 +62,9 @@
   </si>
   <si>
     <t>لا تفتح هذا الملف أثناء تشغيل الأداة.</t>
+  </si>
+  <si>
+    <t>سيتم تجاهل الصف الذي يكون أحد حقليه فارغاً.</t>
   </si>
 </sst>
 </file>
@@ -453,7 +450,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -468,87 +465,85 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1">
       <c r="A2" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="26.25" thickBot="1">
       <c r="A3" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="26.25" thickBot="1">
+    <row r="4" spans="1:4" ht="15" thickBot="1">
       <c r="A4" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1"/>
       <c r="D4" s="3" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.45" customHeight="1" thickBot="1">
       <c r="A5" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>3</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1">
       <c r="A6" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1">
       <c r="A7" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1">
       <c r="A8" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" thickBot="1">
       <c r="A9" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" thickBot="1">
       <c r="A10" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
